--- a/docs/timetwister.xlsx
+++ b/docs/timetwister.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Github\timetwister\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DBA4E4-94CC-4A6A-B679-0D209482C10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99323A35-3330-4B3B-BA17-C0C4DCAB1E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="45" windowWidth="21960" windowHeight="15750" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
+    <workbookView xWindow="13140" yWindow="-315" windowWidth="15225" windowHeight="15750" activeTab="2" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Reading </t>
   </si>
@@ -85,12 +87,57 @@
   <si>
     <t>initial bpm</t>
   </si>
+  <si>
+    <t>Pot1</t>
+  </si>
+  <si>
+    <t>Pot2</t>
+  </si>
+  <si>
+    <t>Pot3</t>
+  </si>
+  <si>
+    <t>Pot4</t>
+  </si>
+  <si>
+    <t>dy[i]</t>
+  </si>
+  <si>
+    <t>y1/y2</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>y offset</t>
+  </si>
+  <si>
+    <t>y1/y2 with offset</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>dy[i]/4</t>
+  </si>
+  <si>
+    <t>dy[i]/8</t>
+  </si>
+  <si>
+    <t>tempo_map[i]</t>
+  </si>
+  <si>
+    <t>yoffset</t>
+  </si>
+  <si>
+    <t>bpm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +164,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,11 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A117BA-25B2-4B8C-9CD3-459C29ED1C58}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,4 +2363,3506 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03A2E98-4988-475A-B8E4-D40198DF4947}">
+  <dimension ref="B1:F130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>45</v>
+      </c>
+      <c r="D1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>$C$1*(B3/127)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>$D$1*TAN(RADIANS(C3))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>INT(D3+0.5)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f>E3 &amp; ", "</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">$C$1*(B4/127)</f>
+        <v>0.3543307086614173</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="1">$D$1*TAN(RADIANS(C4))</f>
+        <v>1.5770006683748816</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="2">INT(D4+0.5)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" si="3">E4 &amp; ", "</f>
+        <v xml:space="preserve">2, </v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.70866141732283461</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.1541219685689441</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.0629921259842519</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4.7314845693148575</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.4173228346456692</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6.3092092131962723</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6, </v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.7716535433070866</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7.8874167536333575</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.1259842519685037</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9.4662281919404521</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9, </v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.4803149606299213</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>11.045764714480015</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">11, </v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.8346456692913384</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>12.626147729937136</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">13, </v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.188976377952756</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>14.207498906739032</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">14, </v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3.5433070866141732</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>15.789940210644067</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.8976377952755903</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>17.373593942525101</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4.2519685039370074</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>18.958582776372126</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4.606299212598425</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>20.545029797539396</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4.9606299212598426</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>22.13305854126261</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.3149606299212602</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>23.722793031471877</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.6692913385826769</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>25.314357819926673</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">25, </v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6.0236220472440953</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>26.907878025699286</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">27, </v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6.377952755905512</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>28.503479375033596</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">29, </v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.7322834645669296</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>30.101288241606611</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">30, </v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>7.0866141732283463</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>31.701431687220474</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">32, </v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>7.4409448818897639</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>33.304037502953278</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">33, </v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>7.7952755905511806</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>34.909234250797468</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">35, </v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>8.1496062992125982</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>36.517151305815268</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">37, </v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>8.5039370078740149</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>38.127918898841024</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">38, </v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>8.8582677165354333</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>39.741668159761161</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">40, </v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>9.21259842519685</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>41.358531161402979</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">41, </v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>9.5669291338582685</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>42.97864096406439</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">43, </v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>9.9212598425196852</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>44.602131660717198</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">45, </v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>10.275590551181104</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>46.229138422917678</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">46, </v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>10.62992125984252</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>47.85979754745869</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">48, </v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>10.984251968503937</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>49.494246503798699</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">49, </v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>11.338582677165354</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>51.13262398230394</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">51, </v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>11.69291338582677</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>52.775069943340874</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">53, </v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>12.047244094488191</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>54.42172566725722</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">54, </v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>12.401574803149607</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>56.072733805290824</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">56, </v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>12.755905511811024</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>57.728238431446989</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">58, </v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>13.110236220472441</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>59.388385095385701</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">59, </v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>13.464566929133859</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>61.053320876361873</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">61, </v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>13.818897637795276</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>62.723194438262695</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">63, </v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>14.173228346456693</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>64.398156085787804</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">64, </v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>14.527559055118109</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>66.078357821819353</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">66, </v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>14.881889763779528</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>67.763953406030382</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">68, </v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>15.236220472440944</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>69.455098414781901</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">69, </v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>15.590551181102361</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>71.15195030236049</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">71, </v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>15.944881889763778</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>72.854668463609684</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">73, </v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>16.299212598425196</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>74.563414298011082</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">75, </v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>16.653543307086615</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>76.278351275272044</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">76, </v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>17.00787401574803</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>77.999645002479554</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">78, </v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>17.362204724409448</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>79.727463292881723</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">80, </v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>17.716535433070867</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>81.461976236360158</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">81, </v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>18.070866141732285</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>83.2033562716598</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">83, </v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>18.4251968503937</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>84.95177826044393</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">85, </v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>18.779527559055119</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>86.707419563245665</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">87, </v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>19.133858267716537</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>88.470460117389052</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">88, </v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>19.488188976377952</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>90.241082516956524</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">90, </v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>19.84251968503937</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>92.019472094881579</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">92, </v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>20.196850393700785</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>93.805817007248663</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">94, </v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>20.551181102362207</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>95.600308319886494</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">96, </v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>20.905511811023622</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>97.40314009734243</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">97, </v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>21.259842519685041</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>99.214509494331338</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">99, </v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>21.614173228346456</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>101.03461684975362</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">101, </v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>21.968503937007874</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>102.86366578338331</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">103, </v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>22.322834645669293</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>104.70186329532891</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">105, </v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>22.677165354330707</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>106.54941986837585</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">107, </v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C130" si="4">$C$1*(B68/127)</f>
+        <v>23.031496062992126</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D130" si="5">$D$1*TAN(RADIANS(C68))</f>
+        <v>108.40654957332251</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E130" si="6">INT(D68+0.5)</f>
+        <v>108</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F130" si="7">E68 &amp; ", "</f>
+        <v xml:space="preserve">108, </v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>23.385826771653541</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>110.27347017742662</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">110, </v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>23.740157480314959</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>112.15040325608472</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">112, </v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>24.094488188976381</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>114.03757430787077</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">114, </v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>24.448818897637796</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>115.93521287306696</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">116, </v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>24.803149606299215</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>117.84355265582448</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">118, </v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>25.15748031496063</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>119.76283165009802</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">120, </v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>25.511811023622048</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>121.69329226950441</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">122, </v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>25.866141732283463</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>123.63518148126151</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">124, </v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>26.220472440944881</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>125.58875094437161</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">126, </v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>26.574803149606296</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>127.55425715221895</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">128, </v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>26.929133858267718</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>129.53196157976069</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">130, </v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>27.283464566929137</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>131.52213083549617</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">132, </v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>27.637795275590552</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>133.52503681841046</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">134, </v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>27.99212598425197</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>135.54095688009406</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">136, </v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>28.346456692913385</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>137.57017399225225</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">138, </v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>28.700787401574804</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>139.61297691982568</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">140, </v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>29.055118110236219</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>141.66966039995532</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">142, </v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>29.409448818897637</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>143.74052532703428</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">144, </v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>29.763779527559056</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>145.82587894410176</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">146, </v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>30.118110236220474</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>147.92603504084545</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">148, </v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>30.472440944881889</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>150.04131415849122</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">150, </v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>30.826771653543307</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>152.17204380187343</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">152, </v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>31.181102362204722</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>154.3185586589909</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">154, </v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>31.535433070866141</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>156.4812008283715</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">156, </v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>31.889763779527556</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>158.66032005458064</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">159, </v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>32.244094488188971</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>160.85627397222774</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">161, </v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>32.598425196850393</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>163.06942835884149</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">163, </v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>32.952755905511815</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>165.30015739700141</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">165, </v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>33.30708661417323</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>167.54884394613654</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">168, </v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>33.661417322834644</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>169.81587982441741</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">170, </v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>34.015748031496059</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>172.1016661011937</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">172, </v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>34.370078740157481</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>174.40661340044949</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">174, </v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>34.724409448818896</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="5"/>
+        <v>176.73114221577484</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">177, </v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>35.078740157480311</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>179.07568323737564</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">179, </v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="4"/>
+        <v>35.433070866141733</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="5"/>
+        <v>181.4406776916731</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">181, </v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>35.787401574803148</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>183.82657769407041</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">184, </v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>36.14173228346457</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="5"/>
+        <v>186.23384661549781</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">186, </v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>36.496062992125985</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="5"/>
+        <v>188.66295946337505</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">189, </v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>36.8503937007874</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="5"/>
+        <v>191.11440327766994</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">191, </v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>105</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="4"/>
+        <v>37.204724409448815</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="5"/>
+        <v>193.58867754276181</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">194, </v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="4"/>
+        <v>37.559055118110237</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="5"/>
+        <v>196.08629461586301</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">196, </v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="4"/>
+        <v>37.913385826771652</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="5"/>
+        <v>198.60778017278696</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">199, </v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>108</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="4"/>
+        <v>38.267716535433074</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="5"/>
+        <v>201.15367367189955</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">201, </v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>109</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="4"/>
+        <v>38.622047244094489</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="5"/>
+        <v>203.72452883713251</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">204, </v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>110</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="4"/>
+        <v>38.976377952755904</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="5"/>
+        <v>206.32091416098834</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">206, </v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>111</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="4"/>
+        <v>39.330708661417326</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>208.94341342851885</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">209, </v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>112</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="4"/>
+        <v>39.685039370078741</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="5"/>
+        <v>211.5926262633119</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">212, </v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>113</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="4"/>
+        <v>40.039370078740156</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>214.26916869658379</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">214, </v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>114</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="4"/>
+        <v>40.393700787401571</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="5"/>
+        <v>216.97367376053222</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">217, </v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>115</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="4"/>
+        <v>40.748031496062993</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>219.70679210717657</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">220, </v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>116</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="4"/>
+        <v>41.102362204724415</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>222.46919265397841</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">222, </v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>117</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="4"/>
+        <v>41.45669291338583</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>225.26156325761497</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">225, </v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>118</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="4"/>
+        <v>41.811023622047244</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="5"/>
+        <v>228.08461141735481</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">228, </v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>119</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="4"/>
+        <v>42.165354330708659</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="5"/>
+        <v>230.93906500957482</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="6"/>
+        <v>231</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">231, </v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="4"/>
+        <v>42.519685039370081</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="5"/>
+        <v>233.82567305504563</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">234, </v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="4"/>
+        <v>42.874015748031496</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>236.74520652071388</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">237, </v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>43.228346456692911</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>239.69845915781198</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">240, </v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>123</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>43.582677165354326</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>242.68624837823887</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">243, </v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>124</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>43.937007874015748</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>245.70941617127437</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">246, </v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>125</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>44.29133858267717</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>248.76883006281804</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">249, </v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>126</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>44.645669291338585</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>251.86538411948038</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">252, </v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">255, </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92878DF8-77D4-4936-977F-9F59D8A06398}">
+  <dimension ref="A2:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>233</v>
+      </c>
+      <c r="D3">
+        <v>207</v>
+      </c>
+      <c r="E3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <f>IF(B3&gt;127, B3-128,127-B3)</f>
+        <v>127</v>
+      </c>
+      <c r="C4" s="5">
+        <f>IF(C3&gt;127, C3-128,127-C3)</f>
+        <v>105</v>
+      </c>
+      <c r="D4" s="5">
+        <f>IF(D3&gt;127, D3-128,127-D3)</f>
+        <v>79</v>
+      </c>
+      <c r="E4" s="5">
+        <f>IF(E3&gt;127, E3-128,127-E3)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <f>VLOOKUP(B4,Sheet2!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="C5" s="5">
+        <f>VLOOKUP(C4,Sheet2!$B3:$E130,4)</f>
+        <v>194</v>
+      </c>
+      <c r="D5" s="5">
+        <f>VLOOKUP(D4,Sheet2!$B3:$E130,4)</f>
+        <v>136</v>
+      </c>
+      <c r="E5" s="5">
+        <f>VLOOKUP(E4,Sheet2!$B3:$E130,4)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f>IF(B3&gt;127, B5, -B5)</f>
+        <v>255</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:E6" si="0">IF(C3&gt;127, C5, -C5)</f>
+        <v>194</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>2*B6</f>
+        <v>510</v>
+      </c>
+      <c r="C7" s="4">
+        <f>2*C6</f>
+        <v>388</v>
+      </c>
+      <c r="D7" s="4">
+        <f>2*D6</f>
+        <v>272</v>
+      </c>
+      <c r="E7" s="4">
+        <f>2*E6</f>
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>A9+B7</f>
+        <v>510</v>
+      </c>
+      <c r="C9">
+        <f>B9+C7</f>
+        <v>898</v>
+      </c>
+      <c r="D9">
+        <f>C9+D7</f>
+        <v>1170</v>
+      </c>
+      <c r="E9">
+        <f>D9+E7</f>
+        <v>1528</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>256*(A9+B9)</f>
+        <v>130560</v>
+      </c>
+      <c r="C10">
+        <f>256*(B9+C9)</f>
+        <v>360448</v>
+      </c>
+      <c r="D10">
+        <f>256*(C9+D9)</f>
+        <v>529408</v>
+      </c>
+      <c r="E10">
+        <f>256*(D9+E9)</f>
+        <v>690688</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUM(B10:E10)</f>
+        <v>1711104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>-INT(F10/2048)</f>
+        <v>-835</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>F11</f>
+        <v>-835</v>
+      </c>
+      <c r="B13">
+        <f>A13+B7</f>
+        <v>-325</v>
+      </c>
+      <c r="C13">
+        <f>B13+C7</f>
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <f>C13+D7</f>
+        <v>335</v>
+      </c>
+      <c r="E13">
+        <f>D13+E7</f>
+        <v>693</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>256*(A13+B13)</f>
+        <v>-296960</v>
+      </c>
+      <c r="C14">
+        <f>256*(B13+C13)</f>
+        <v>-67072</v>
+      </c>
+      <c r="D14">
+        <f>256*(C13+D13)</f>
+        <v>101888</v>
+      </c>
+      <c r="E14">
+        <f>256*(D13+E13)</f>
+        <v>263168</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(B14:E14)</f>
+        <v>1024</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f>A13</f>
+        <v>-835</v>
+      </c>
+      <c r="H18" s="2">
+        <v>120</v>
+      </c>
+      <c r="I18">
+        <f>60000/H18</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>$B$7</f>
+        <v>510</v>
+      </c>
+      <c r="C19">
+        <f>B19/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="D19">
+        <f>C19+D18</f>
+        <v>-707.5</v>
+      </c>
+      <c r="E19">
+        <f>INT(B19/8)</f>
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <f>INT(D18+E19+0.5)</f>
+        <v>-772</v>
+      </c>
+      <c r="H19">
+        <f>$H$18*(1024+F19)/1024</f>
+        <v>29.53125</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I34" si="1">60000/H19</f>
+        <v>2031.7460317460318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>$B$7</f>
+        <v>510</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C34" si="2">B20/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D34" si="3">C20+D19</f>
+        <v>-580</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E34" si="4">INT(B20/8)</f>
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F34" si="5">INT(D19+E20+0.5)</f>
+        <v>-644</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H34" si="6">$H$18*(1024+F20)/1024</f>
+        <v>44.53125</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1347.3684210526317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>$B$7</f>
+        <v>510</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>-452.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>-517</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>59.4140625</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1009.8619329388561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>$B$7</f>
+        <v>510</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>-325</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>-389</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>74.4140625</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>806.29921259842524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>$C$7</f>
+        <v>388</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>-228</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>-277</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>87.5390625</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>685.40829986613119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>$C$7</f>
+        <v>388</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>-131</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>-180</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>98.90625</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>606.6350710900474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>$C$7</f>
+        <v>388</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>-34</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>-83</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>110.2734375</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>544.10201912858656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f>$C$7</f>
+        <v>388</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>121.640625</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>493.25626204238921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>$D$7</f>
+        <v>272</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>131.3671875</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>456.73505798394291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f>$D$7</f>
+        <v>272</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>139.3359375</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>430.6139613120269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f>$D$7</f>
+        <v>272</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>233</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>147.3046875</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>407.31901352426411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f>$D$7</f>
+        <v>272</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>155.2734375</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>386.41509433962267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f>$E$7</f>
+        <v>358</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>424.5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>164.4140625</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>364.93228795438347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f>$E$7</f>
+        <v>358</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>514</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>469</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>174.9609375</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>342.93369055592768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <f>$E$7</f>
+        <v>358</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>603.5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>558</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>185.390625</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>323.64096080910241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <f>$E$7</f>
+        <v>358</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>693</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>648</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>195.9375</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>306.22009569377991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/timetwister.xlsx
+++ b/docs/timetwister.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Github\timetwister\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Github\d-ticker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99323A35-3330-4B3B-BA17-C0C4DCAB1E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CEF43E-3E35-4EEF-9DEF-9C4576E18464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="-315" windowWidth="15225" windowHeight="15750" activeTab="2" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
+    <workbookView xWindow="4500" yWindow="60" windowWidth="21315" windowHeight="15690" activeTab="5" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TanLookup" sheetId="2" r:id="rId2"/>
+    <sheet name="subtle" sheetId="3" r:id="rId3"/>
+    <sheet name="xxx" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3 (3)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t xml:space="preserve">Reading </t>
   </si>
@@ -132,12 +135,117 @@
   <si>
     <t>bpm</t>
   </si>
+  <si>
+    <t>Simulated 8-bit ADC reading</t>
+  </si>
+  <si>
+    <t>Index into Tan lookup table</t>
+  </si>
+  <si>
+    <t>Max Angle…....</t>
+  </si>
+  <si>
+    <t>… Max Tan value</t>
+  </si>
+  <si>
+    <t>Tan table lookup</t>
+  </si>
+  <si>
+    <t>Signed Tan table lookup</t>
+  </si>
+  <si>
+    <t>Change in Y position over this quarter (4 of 16 steps)</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Change Y</t>
+  </si>
+  <si>
+    <t>Change X</t>
+  </si>
+  <si>
+    <t>Y position</t>
+  </si>
+  <si>
+    <t>Slice Area</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Area of trapezoid</t>
+  </si>
+  <si>
+    <t>Total area under graph</t>
+  </si>
+  <si>
+    <t>Start-End Y position for each quarter (starting at 2048 offset)</t>
+  </si>
+  <si>
+    <t>Area under fixed tempo graph</t>
+  </si>
+  <si>
+    <t>Scaling factor</t>
+  </si>
+  <si>
+    <t>Fixed tempo pos</t>
+  </si>
+  <si>
+    <t>Slice position</t>
+  </si>
+  <si>
+    <t>(for reference)</t>
+  </si>
+  <si>
+    <t>offset (area)</t>
+  </si>
+  <si>
+    <t>offset/2048 (vertical shift)</t>
+  </si>
+  <si>
+    <t>vertical shift applied to delta Y</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>Area (check sum)</t>
+  </si>
+  <si>
+    <t>Initial calculation of the area under the graph</t>
+  </si>
+  <si>
+    <t>Pot values… 0 means 45 degree increase, 255 means 45 degree decrease, 128 means no change</t>
+  </si>
+  <si>
+    <t>Gradiant 1</t>
+  </si>
+  <si>
+    <t>Gradiant 2</t>
+  </si>
+  <si>
+    <t>Gradiant 3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +292,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,13 +341,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +668,1469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>subtle!$A$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A46E-4FAF-B7F1-BEA81DBB704B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313523584"/>
+        <c:axId val="414864800"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="313523584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414864800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414864800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313523584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>subtle!$G$17:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.104302477183836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.52803129074314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.27118644067798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384.33376792698823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493.71577574967404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>608.41720990873534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>728.43807040417209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>853.77835723598434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>984.43807040417209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120.4172099087352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1261.7157757496741</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1408.3337679269882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1560.2711864406779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1717.528031290743</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1880.1043024771839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>subtle!$A$17:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-179D-40E4-B5D2-148914546162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312506624"/>
+        <c:axId val="413979104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312506624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413979104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413979104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312506624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xxx!$H$29:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xxx!$A$29:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0644-4F99-A92F-9E231E10C382}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313961728"/>
+        <c:axId val="314061344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="313961728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314061344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="314061344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313961728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xxx!$A$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xxx!$A$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A140-4F3D-A5AA-38D09B2B570F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316073248"/>
+        <c:axId val="320154080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316073248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320154080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320154080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316073248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1074,6 +2672,2075 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1126,6 +4793,160 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C28ED8-DDE7-4C24-A7A2-1BA0B18ECF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB99818-CA0F-453C-A7BB-1A1FE836381B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A04F15-B348-4A44-BB28-6600BABB6DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AAB0EE-58DF-4873-99D8-13300C56C9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2367,23 +6188,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03A2E98-4988-475A-B8E4-D40198DF4947}">
-  <dimension ref="B1:F130"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2">
         <v>45</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -2404,7 +6231,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2425,7 +6252,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2446,7 +6273,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2467,7 +6294,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2488,7 +6315,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2509,7 +6336,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2530,7 +6357,7 @@
         <v xml:space="preserve">9, </v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2551,7 +6378,7 @@
         <v xml:space="preserve">11, </v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2572,7 +6399,7 @@
         <v xml:space="preserve">13, </v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2593,7 +6420,7 @@
         <v xml:space="preserve">14, </v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2614,7 +6441,7 @@
         <v xml:space="preserve">16, </v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2635,7 +6462,7 @@
         <v xml:space="preserve">17, </v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2656,7 +6483,7 @@
         <v xml:space="preserve">19, </v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -5073,6 +8900,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5080,8 +8908,1901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92878DF8-77D4-4936-977F-9F59D8A06398}">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
+      </c>
+      <c r="E3">
+        <v>255</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <f>IF(B3&gt;127, B3-128,127-B3)</f>
+        <v>127</v>
+      </c>
+      <c r="C4" s="5">
+        <f>IF(C3&gt;127, C3-128,127-C3)</f>
+        <v>127</v>
+      </c>
+      <c r="D4" s="5">
+        <f>IF(D3&gt;127, D3-128,127-D3)</f>
+        <v>127</v>
+      </c>
+      <c r="E4" s="5">
+        <f>IF(E3&gt;127, E3-128,127-E3)</f>
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <f>VLOOKUP(B4,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="C5" s="5">
+        <f>VLOOKUP(C4,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="D5" s="5">
+        <f>VLOOKUP(D4,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="E5" s="5">
+        <f>VLOOKUP(E4,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f>IF(B3&gt;127, B5, -B5)</f>
+        <v>255</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:E6" si="0">IF(C3&gt;127, C5, -C5)</f>
+        <v>255</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>2*B6</f>
+        <v>510</v>
+      </c>
+      <c r="C7" s="4">
+        <f>2*C6</f>
+        <v>510</v>
+      </c>
+      <c r="D7" s="4">
+        <f>2*D6</f>
+        <v>510</v>
+      </c>
+      <c r="E7" s="4">
+        <f>2*E6</f>
+        <v>510</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B9">
+        <f>A9+B7</f>
+        <v>2558</v>
+      </c>
+      <c r="C9">
+        <f>B9+C7</f>
+        <v>3068</v>
+      </c>
+      <c r="D9">
+        <f>C9+D7</f>
+        <v>3578</v>
+      </c>
+      <c r="E9">
+        <f>D9+E7</f>
+        <v>4088</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>0.5*(A9+B9)*512</f>
+        <v>1179136</v>
+      </c>
+      <c r="C10">
+        <f>0.5*(B9+C9)*512</f>
+        <v>1440256</v>
+      </c>
+      <c r="D10">
+        <f>0.5*(C9+D9)*512</f>
+        <v>1701376</v>
+      </c>
+      <c r="E10">
+        <f>0.5*(D9+E9)*512</f>
+        <v>1962496</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <f>SUM(B10:E10)</f>
+        <v>6283264</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2048</v>
+      </c>
+      <c r="E12" s="2">
+        <f>C12*D12</f>
+        <v>4194304</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>E12/E11</f>
+        <v>0.66753585397653192</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D16" s="2">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <f>2048/$E33</f>
+        <v>3.2594524119947848E-4</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>$B$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C17">
+        <f>C16+B17</f>
+        <v>2175.5</v>
+      </c>
+      <c r="D17">
+        <f>$D$16</f>
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <f>(C16+C17)*D17/2</f>
+        <v>270304</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>F17*$G$16</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>INT(0.5+G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>$B$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C32" si="1">C17+B18</f>
+        <v>2303</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D32" si="2">$D$16</f>
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E32" si="3">(C17+C18)*D18/2</f>
+        <v>286624</v>
+      </c>
+      <c r="F18">
+        <f>F17+E17</f>
+        <v>270304</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G32" si="4">F18*$G$16</f>
+        <v>88.104302477183836</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H32" si="5">INT(0.5+G18)</f>
+        <v>88</v>
+      </c>
+      <c r="I18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>$B$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>2430.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>302944</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F32" si="6">F18+E18</f>
+        <v>556928</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>181.52803129074314</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="I19">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f>$B$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>2558</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>319264</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>859872</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>280.27118644067798</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="I20">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f>C$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>2685.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>335584</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>1179136</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>384.33376792698823</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="I21">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f>C$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>2813</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>351904</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>1514720</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>493.71577574967404</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>494</v>
+      </c>
+      <c r="I22">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f>C$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>2940.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>368224</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>1866624</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>608.41720990873534</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>608</v>
+      </c>
+      <c r="I23">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f>C$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>3068</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>384544</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>2234848</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>728.43807040417209</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>728</v>
+      </c>
+      <c r="I24">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f>D$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>3195.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>400864</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>2619392</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>853.77835723598434</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>854</v>
+      </c>
+      <c r="I25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f>D$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>3323</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>417184</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>3020256</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>984.43807040417209</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>984</v>
+      </c>
+      <c r="I26">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f>D$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>3450.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>433504</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>3437440</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>1120.4172099087352</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1120</v>
+      </c>
+      <c r="I27">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <f>D$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>3578</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>449824</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>3870944</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>1261.7157757496741</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1262</v>
+      </c>
+      <c r="I28">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f>E$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>3705.5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>466144</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>4320768</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>1408.3337679269882</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>1408</v>
+      </c>
+      <c r="I29">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f>E$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>3833</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>482464</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>4786912</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>1560.2711864406779</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>1560</v>
+      </c>
+      <c r="I30">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <f>E$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>3960.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>498784</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>5269376</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>1717.528031290743</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>1718</v>
+      </c>
+      <c r="I31">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f>E$7/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>4088</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>515104</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>5768160</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>1880.1043024771839</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>1880</v>
+      </c>
+      <c r="I32">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <f>SUM(E17:E32)</f>
+        <v>6283264</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566D0141-F4C0-482D-BEF4-CE87BE751122}">
+  <dimension ref="A2:K46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>255</v>
+      </c>
+      <c r="E5" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <f>255-B5</f>
+        <v>255</v>
+      </c>
+      <c r="C6" s="10">
+        <f>255-C5</f>
+        <v>255</v>
+      </c>
+      <c r="D6" s="10">
+        <f>255-D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <f>255-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <f>IF(B6&gt;127, B6-128,127-B6)</f>
+        <v>127</v>
+      </c>
+      <c r="C7" s="5">
+        <f>IF(C6&gt;127, C6-128,127-C6)</f>
+        <v>127</v>
+      </c>
+      <c r="D7" s="5">
+        <f>IF(D6&gt;127, D6-128,127-D6)</f>
+        <v>127</v>
+      </c>
+      <c r="E7" s="5">
+        <f>IF(E6&gt;127, E6-128,127-E6)</f>
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <f>VLOOKUP(B7,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="C8" s="5">
+        <f>VLOOKUP(C7,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="D8" s="5">
+        <f>VLOOKUP(D7,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="E8" s="5">
+        <f>VLOOKUP(E7,TanLookup!$B3:$E130,4)</f>
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <f>IF(B6&gt;127, B8, -B8)</f>
+        <v>255</v>
+      </c>
+      <c r="C9" s="5">
+        <f>IF(C6&gt;127, C8, -C8)</f>
+        <v>255</v>
+      </c>
+      <c r="D9" s="5">
+        <f>IF(D6&gt;127, D8, -D8)</f>
+        <v>-255</v>
+      </c>
+      <c r="E9" s="5">
+        <f>IF(E6&gt;127, E8, -E8)</f>
+        <v>-255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <f>2*B9</f>
+        <v>510</v>
+      </c>
+      <c r="C10" s="4">
+        <f>2*C9</f>
+        <v>510</v>
+      </c>
+      <c r="D10" s="4">
+        <f>2*D9</f>
+        <v>-510</v>
+      </c>
+      <c r="E10" s="4">
+        <f>2*E9</f>
+        <v>-510</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7">
+        <f>A13+B10</f>
+        <v>510</v>
+      </c>
+      <c r="C13" s="7">
+        <f>B13+C10</f>
+        <v>1020</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13+D10</f>
+        <v>510</v>
+      </c>
+      <c r="E13" s="7">
+        <f>D13+E10</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
+        <f>0.5*(A13+B13)*512</f>
+        <v>130560</v>
+      </c>
+      <c r="C14" s="7">
+        <f>0.5*(B13+C13)*512</f>
+        <v>391680</v>
+      </c>
+      <c r="D14" s="7">
+        <f>0.5*(C13+D13)*512</f>
+        <v>391680</v>
+      </c>
+      <c r="E14" s="7">
+        <f>0.5*(D13+E13)*512</f>
+        <v>130560</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <f>SUM(B14:E14)</f>
+        <v>1044480</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8">
+        <v>2048</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2048</v>
+      </c>
+      <c r="E17" s="8">
+        <f>C17*D17</f>
+        <v>4194304</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <f>E17-E15</f>
+        <v>3149824</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8">
+        <f>E18/2048</f>
+        <v>1538</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>B10+$E$19</f>
+        <v>2048</v>
+      </c>
+      <c r="C21">
+        <f>C10+$E$19</f>
+        <v>2048</v>
+      </c>
+      <c r="D21">
+        <f>D10+$E$19</f>
+        <v>1028</v>
+      </c>
+      <c r="E21">
+        <f>E10+$E$19</f>
+        <v>1028</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>$E$19</f>
+        <v>1538</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B13+$E$19</f>
+        <v>2048</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C13+$E$19</f>
+        <v>2558</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D13+$E$19</f>
+        <v>2048</v>
+      </c>
+      <c r="E22" s="2">
+        <f>E13+$E$19</f>
+        <v>1538</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>0.5*(A22+B22)*512</f>
+        <v>918016</v>
+      </c>
+      <c r="C23">
+        <f>0.5*(B22+C22)*512</f>
+        <v>1179136</v>
+      </c>
+      <c r="D23">
+        <f>0.5*(C22+D22)*512</f>
+        <v>1179136</v>
+      </c>
+      <c r="E23">
+        <f>0.5*(D22+E22)*512</f>
+        <v>918016</v>
+      </c>
+      <c r="F23" s="2">
+        <f>SUM(B23:E23)</f>
+        <v>4194304</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f>$E$19</f>
+        <v>1538</v>
+      </c>
+      <c r="D28" s="2">
+        <v>128</v>
+      </c>
+      <c r="G28">
+        <f>2048/$E45</f>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>$B$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C29">
+        <f>C28+B29</f>
+        <v>1665.5</v>
+      </c>
+      <c r="D29">
+        <f>$D$28</f>
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <f>(C28+C29)*D29/2</f>
+        <v>205024</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>F29*$G$28</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>INT(0.5+G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f>$B$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C44" si="0">C29+B30</f>
+        <v>1793</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D44" si="1">$D$28</f>
+        <v>128</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E44" si="2">(C29+C30)*D30/2</f>
+        <v>221344</v>
+      </c>
+      <c r="F30">
+        <f>F29+E29</f>
+        <v>205024</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G44" si="3">F30*$G$28</f>
+        <v>100.109375</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H44" si="4">INT(0.5+G30)</f>
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <f>$B$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1920.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>237664</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F44" si="5">F30+E30</f>
+        <v>426368</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>208.1875</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="I31">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <f>$B$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>253984</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>664032</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>324.234375</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="I32">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <f>$C$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2175.5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>270304</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>918016</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>448.25</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>448</v>
+      </c>
+      <c r="I33">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f>$C$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2303</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>286624</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>1188320</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>580.234375</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="I34">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <f>$C$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2430.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>302944</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>1474944</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>720.1875</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="I35">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <f>$C$10/4</f>
+        <v>127.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>2558</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>319264</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>1777888</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>868.109375</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>868</v>
+      </c>
+      <c r="I36">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <f>$D$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2430.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>319264</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>2097152</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="I37">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <f>$D$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2303</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>302944</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>2416416</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>1179.890625</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>1180</v>
+      </c>
+      <c r="I38">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <f>$D$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2175.5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>286624</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>2719360</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>1327.8125</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>1328</v>
+      </c>
+      <c r="I39">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <f>$D$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>270304</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>3005984</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>1467.765625</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>1468</v>
+      </c>
+      <c r="I40">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <f>$E$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1920.5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>253984</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>3276288</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>1599.75</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="I41">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <f>$E$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1793</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>237664</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>3530272</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1723.765625</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>1724</v>
+      </c>
+      <c r="I42">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <f>$E$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1665.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>221344</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>3767936</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>1839.8125</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>1840</v>
+      </c>
+      <c r="I43">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <f>$E$10/4</f>
+        <v>-127.5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1538</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>205024</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>3989280</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>1947.890625</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>1948</v>
+      </c>
+      <c r="I44">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2">
+        <f>SUM(E29:E44)</f>
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A828F8F1-0181-4FA3-A823-AB86E255842D}">
+  <dimension ref="A2:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5134,19 +10855,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <f>VLOOKUP(B4,Sheet2!$B3:$E130,4)</f>
+        <f>VLOOKUP(B4,TanLookup!$B3:$E130,4)</f>
         <v>255</v>
       </c>
       <c r="C5" s="5">
-        <f>VLOOKUP(C4,Sheet2!$B3:$E130,4)</f>
+        <f>VLOOKUP(C4,TanLookup!$B3:$E130,4)</f>
         <v>194</v>
       </c>
       <c r="D5" s="5">
-        <f>VLOOKUP(D4,Sheet2!$B3:$E130,4)</f>
+        <f>VLOOKUP(D4,TanLookup!$B3:$E130,4)</f>
         <v>136</v>
       </c>
       <c r="E5" s="5">
-        <f>VLOOKUP(E4,Sheet2!$B3:$E130,4)</f>
+        <f>VLOOKUP(E4,TanLookup!$B3:$E130,4)</f>
         <v>179</v>
       </c>
     </row>
@@ -5859,6 +11580,313 @@
       <c r="I34">
         <f t="shared" si="1"/>
         <v>306.22009569377991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB612A2-7A0A-4E39-BED9-B844E0767E13}">
+  <dimension ref="A2:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>207</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3-128</f>
+        <v>-128</v>
+      </c>
+      <c r="C4">
+        <f>C3-128</f>
+        <v>-128</v>
+      </c>
+      <c r="D4">
+        <f>D3-128</f>
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <f>E3-128</f>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f>(C4-B4)/$B$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <f>(D4-C4)/$B$6</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <f>(E4-D4)/$B$6</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f>E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f>E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f>E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f>E$7</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f>E$7</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f>E$7</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f>E$7</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f>E$8</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <f>E$8</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <f>E$8</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <f>E$8</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <f>E$8</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <f>E$8</f>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <f>E$8</f>
+        <v>-207</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timetwister.xlsx
+++ b/docs/timetwister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Github\d-ticker\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Dropbox\Github\d-ticker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CEF43E-3E35-4EEF-9DEF-9C4576E18464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B37ADC-BC58-40EF-B988-E33EA30F27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="60" windowWidth="21315" windowHeight="15690" activeTab="5" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
+    <workbookView xWindow="13965" yWindow="-315" windowWidth="21585" windowHeight="15885" activeTab="6" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="xxx" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3 (2)" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet3 (3)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t xml:space="preserve">Reading </t>
   </si>
@@ -240,6 +241,42 @@
   <si>
     <t>Section</t>
   </si>
+  <si>
+    <t>Pot input is -1.0 to +1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pot 1 </t>
+  </si>
+  <si>
+    <t>pot 2</t>
+  </si>
+  <si>
+    <t>pot 3</t>
+  </si>
+  <si>
+    <t>pot 4</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>norm_rate</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
 </sst>
 </file>
 
@@ -341,19 +378,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1970,6 +2005,624 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$6:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8823529411764712E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11029411764705882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15441176470588236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19117647058823531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22794117647058826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3014705882352941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33823529411764702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41176470588235292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44852941176470584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55882352941176472</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66911764705882348</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81617647058823528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DB7-402A-8FC1-C9EF8FF678E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="481012688"/>
+        <c:axId val="481011248"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="481012688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481011248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481011248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481012688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>112.94117647058825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.823529411764682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.705882352941188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.588235294117666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.588235294117666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.588235294117609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.588235294117609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.588235294117609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.588235294117709</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.588235294117609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.588235294117609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.588235294117709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141.17647058823533</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>211.76470588235281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>282.35294117647067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-905A-4533-83C2-61F4B1940E25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573190527"/>
+        <c:axId val="573187167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573190527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573187167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573187167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573190527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2170,6 +2823,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -4245,6 +4978,1043 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4955,10 +6725,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EF2B58-B783-9501-FF52-25470CA8EBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B80B754-BC56-D6FE-2ADF-7269596209AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4996,7 +6843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5102,7 +6949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5244,7 +7091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5254,7 +7101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A117BA-25B2-4B8C-9CD3-459C29ED1C58}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -9131,10 +10978,9 @@
       <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="6"/>
       <c r="I15" t="s">
         <v>50</v>
       </c>
@@ -9752,7 +11598,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566D0141-F4C0-482D-BEF4-CE87BE751122}">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -9764,12 +11610,12 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -9783,39 +11629,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>255</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <f>255-B5</f>
         <v>255</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <f>255-C5</f>
         <v>255</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <f>255-D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <f>255-E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <f>IF(B6&gt;127, B6-128,127-B6)</f>
         <v>127</v>
@@ -9836,7 +11682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>VLOOKUP(B7,TanLookup!$B3:$E130,4)</f>
         <v>255</v>
@@ -9857,7 +11703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f>IF(B6&gt;127, B8, -B8)</f>
         <v>255</v>
@@ -9878,7 +11724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f>2*B9</f>
         <v>510</v>
@@ -9899,167 +11745,110 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <f>A13+B10</f>
         <v>510</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <f>B13+C10</f>
         <v>1020</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <f>C13+D10</f>
         <v>510</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <f>D13+E10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f>0.5*(A13+B13)*512</f>
         <v>130560</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <f>0.5*(B13+C13)*512</f>
         <v>391680</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <f>0.5*(C13+D13)*512</f>
         <v>391680</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <f>0.5*(D13+E13)*512</f>
         <v>130560</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <f>SUM(B14:E14)</f>
         <v>1044480</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2">
         <v>2048</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="2">
         <v>2048</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="2">
         <f>C17*D17</f>
         <v>4194304</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18">
         <f>E17-E15</f>
         <v>3149824</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
         <f>E18/2048</f>
         <v>1538</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -10077,7 +11866,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -10099,7 +11888,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>$E$19</f>
         <v>1538</v>
@@ -10124,7 +11913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>0.5*(A22+B22)*512</f>
         <v>918016</v>
@@ -10149,16 +11938,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -10174,18 +11963,17 @@
       <c r="E27" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
+      <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f>$E$19</f>
         <v>1538</v>
@@ -10202,7 +11990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -10237,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -10273,7 +12061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10309,7 +12097,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -11592,7 +13380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB612A2-7A0A-4E39-BED9-B844E0767E13}">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -11696,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f>E$6</f>
+        <f t="shared" ref="C12:C17" si="0">E$6</f>
         <v>0</v>
       </c>
     </row>
@@ -11708,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f>E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11720,7 +13508,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <f>E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11732,7 +13520,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <f>E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11744,7 +13532,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <f>E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11756,7 +13544,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <f>E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11816,7 +13604,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>E$8</f>
+        <f t="shared" ref="C22:C28" si="1">E$8</f>
         <v>-207</v>
       </c>
     </row>
@@ -11828,7 +13616,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <f>E$8</f>
+        <f t="shared" si="1"/>
         <v>-207</v>
       </c>
     </row>
@@ -11840,7 +13628,7 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <f>E$8</f>
+        <f t="shared" si="1"/>
         <v>-207</v>
       </c>
     </row>
@@ -11852,7 +13640,7 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <f>E$8</f>
+        <f t="shared" si="1"/>
         <v>-207</v>
       </c>
     </row>
@@ -11864,7 +13652,7 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <f>E$8</f>
+        <f t="shared" si="1"/>
         <v>-207</v>
       </c>
     </row>
@@ -11876,7 +13664,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <f>E$8</f>
+        <f t="shared" si="1"/>
         <v>-207</v>
       </c>
     </row>
@@ -11885,7 +13673,7 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <f>E$8</f>
+        <f t="shared" si="1"/>
         <v>-207</v>
       </c>
     </row>
@@ -11893,4 +13681,936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30A5BA5-A2BA-4464-848D-9BE507ED2143}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:D4" si="0">A3*$E$4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="9">
+        <f>$A$4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="C7">
+        <f>C6+B7</f>
+        <v>-0.2</v>
+      </c>
+      <c r="D7">
+        <f>C7-$C$24+$H$4</f>
+        <v>1.6</v>
+      </c>
+      <c r="E7">
+        <f>E6+D7</f>
+        <v>1.6</v>
+      </c>
+      <c r="F7">
+        <f>E7/$E$22</f>
+        <v>5.8823529411764712E-2</v>
+      </c>
+      <c r="G7">
+        <f>120*16*(F7-F6)</f>
+        <v>112.94117647058825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" ref="B8:B10" si="1">$A$4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C22" si="2">C7+B8</f>
+        <v>-0.4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D22" si="3">C8-$C$24+$H$4</f>
+        <v>1.4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E22" si="4">E7+D8</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F22" si="5">E8/$E$22</f>
+        <v>0.11029411764705882</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G21" si="6">120*16*(F8-F7)</f>
+        <v>98.823529411764682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>0.15441176470588236</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>84.705882352941188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>0.19117647058823531</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>70.588235294117666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="9">
+        <f>$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>0.22794117647058826</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>70.588235294117666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" ref="B12:B14" si="7">$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>70.588235294117609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>0.3014705882352941</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>70.588235294117609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>0.33823529411764702</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>70.588235294117609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9">
+        <f>$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>70.588235294117709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="9">
+        <f>$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>11.2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>70.588235294117609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="9">
+        <f>$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>12.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>0.44852941176470584</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>70.588235294117609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="9">
+        <f>$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>13.2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>0.48529411764705882</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>70.588235294117709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="9">
+        <f>$D$4</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>141.17647058823533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="9">
+        <f>$D$4</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>18.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>0.66911764705882348</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>211.76470588235281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="9">
+        <f>$D$4</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>22.2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>0.81617647058823528</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>282.35294117647067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="9">
+        <f>$D$4</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>27.2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2">
+        <f>MIN(C7:C22)</f>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <f>B7+B27</f>
+        <v>0.8</v>
+      </c>
+      <c r="C28">
+        <f>B28-$B$45+1</f>
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <f>D27+C28</f>
+        <v>1.6</v>
+      </c>
+      <c r="E28">
+        <f>D28/$D$45</f>
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B43" si="8">B8+B28</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C43" si="9">B29-$B$45+1</f>
+        <v>1.4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D43" si="10">D28+C29</f>
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E43" si="11">D29/$D$45</f>
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="8"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>4.2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="11"/>
+        <v>0.15441176470588236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>5.2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="11"/>
+        <v>0.19117647058823531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>6.2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>0.22794117647058826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>7.2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>0.3014705882352941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="10"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>0.33823529411764702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="10"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="11"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>11.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>12.2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="11"/>
+        <v>0.44852941176470584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="10"/>
+        <v>13.2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>0.48529411764705882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>15.2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="8"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>18.2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>0.66911764705882348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="8"/>
+        <v>3.2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>22.2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="11"/>
+        <v>0.81617647058823528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>27.2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>MIN(B28:B43)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D45">
+        <f>D43</f>
+        <v>27.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/timetwister.xlsx
+++ b/docs/timetwister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Dropbox\Github\d-ticker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B37ADC-BC58-40EF-B988-E33EA30F27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B913E42-BACE-49D3-A117-E15966A8E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="-315" windowWidth="21585" windowHeight="15885" activeTab="6" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
+    <workbookView xWindow="495" yWindow="2175" windowWidth="17865" windowHeight="12330" activeTab="6" xr2:uid="{08AE59CF-7FA3-4B1B-B063-8E550BCD83BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
